--- a/Configuration.xlsx
+++ b/Configuration.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17571"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="2100" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="17835"/>
   </bookViews>
   <sheets>
     <sheet name="SA-Infra" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="151">
   <si>
     <t>User</t>
   </si>
@@ -67,18 +67,9 @@
     <t>TEAM</t>
   </si>
   <si>
-    <t>Y02PINHST001</t>
-  </si>
-  <si>
     <t>domäne</t>
   </si>
   <si>
-    <t>meine Domäne</t>
-  </si>
-  <si>
-    <t>windows</t>
-  </si>
-  <si>
     <t>fileserver</t>
   </si>
   <si>
@@ -97,12 +88,15 @@
     <t>Weight</t>
   </si>
   <si>
-    <t>MTU</t>
-  </si>
-  <si>
     <t>LayerItems</t>
   </si>
   <si>
+    <t>Infra</t>
+  </si>
+  <si>
+    <t>Plattform</t>
+  </si>
+  <si>
     <t>TeamItems</t>
   </si>
   <si>
@@ -124,18 +118,33 @@
     <t>c:\Hyper-V</t>
   </si>
   <si>
-    <t>Path where Hyper-V VMs are stored</t>
+    <t>LiveMigrationNetwork</t>
   </si>
   <si>
     <t>LiveM</t>
   </si>
   <si>
+    <t>Network for Livemigration</t>
+  </si>
+  <si>
+    <t>MgmtNetwork</t>
+  </si>
+  <si>
     <t>INFRA_VM</t>
   </si>
   <si>
+    <t>Network for Management</t>
+  </si>
+  <si>
+    <t>iSCSINetwork</t>
+  </si>
+  <si>
     <t>iSCSI</t>
   </si>
   <si>
+    <t>Network for iSCSI</t>
+  </si>
+  <si>
     <t>DomainAdminAccount</t>
   </si>
   <si>
@@ -172,19 +181,7 @@
     <t>Hyper-V Host</t>
   </si>
   <si>
-    <t>Windows 2012R2</t>
-  </si>
-  <si>
-    <t>Y02PINHST002</t>
-  </si>
-  <si>
-    <t>Y02PINHST003</t>
-  </si>
-  <si>
-    <t>Y02PINHST004</t>
-  </si>
-  <si>
-    <t>Y02VINPDC001</t>
+    <t>hyper-v</t>
   </si>
   <si>
     <t>pf.domain.local</t>
@@ -196,19 +193,10 @@
     <t>ad</t>
   </si>
   <si>
-    <t>Windows 2012 R2</t>
-  </si>
-  <si>
-    <t>Y02VINWDS001</t>
-  </si>
-  <si>
     <t>Domain Controller</t>
   </si>
   <si>
-    <t>member,wds</t>
-  </si>
-  <si>
-    <t>Y02VINPDC002</t>
+    <t>bdc</t>
   </si>
   <si>
     <t>Domain-Controller</t>
@@ -217,12 +205,6 @@
     <t>pdc</t>
   </si>
   <si>
-    <t>Y02VPFPDC001</t>
-  </si>
-  <si>
-    <t>Y02VPFPKI001</t>
-  </si>
-  <si>
     <t>ADCS Enterprise PKI</t>
   </si>
   <si>
@@ -232,9 +214,6 @@
     <t>member,bdc</t>
   </si>
   <si>
-    <t>Y02VPFPDC002</t>
-  </si>
-  <si>
     <t>pf_VM</t>
   </si>
   <si>
@@ -244,250 +223,256 @@
     <t>10.0.1.10,10.0.1.11</t>
   </si>
   <si>
+    <t>plattform</t>
+  </si>
+  <si>
     <t>pf_VM_voice</t>
   </si>
   <si>
     <t>10.1.2.0</t>
   </si>
   <si>
-    <t>Windows Deployment Services</t>
-  </si>
-  <si>
-    <t>member,vmm</t>
-  </si>
-  <si>
-    <t>Role</t>
-  </si>
-  <si>
-    <t>SA-Infra</t>
-  </si>
-  <si>
-    <t>SA-Plattform</t>
-  </si>
-  <si>
-    <t>CentralManagement</t>
-  </si>
-  <si>
-    <t>DMZ-Infra</t>
-  </si>
-  <si>
-    <t>DMZ-Plattform</t>
-  </si>
-  <si>
-    <t>OSItems</t>
-  </si>
-  <si>
-    <t>Windows 2008R2</t>
-  </si>
-  <si>
-    <t>Windows 2012</t>
-  </si>
-  <si>
-    <t>member,hyper-v</t>
-  </si>
-  <si>
-    <t>RoleItems</t>
-  </si>
-  <si>
-    <t>Mgmt</t>
-  </si>
-  <si>
-    <t>Livemigration</t>
+    <t>JumboPackets?</t>
+  </si>
+  <si>
+    <t>Nodename</t>
+  </si>
+  <si>
+    <t>10.0.1.1</t>
+  </si>
+  <si>
+    <t>192.168.180.1</t>
+  </si>
+  <si>
+    <t>10.0.1.2</t>
+  </si>
+  <si>
+    <t>10.0.1.3</t>
+  </si>
+  <si>
+    <t>10.0.1.4</t>
+  </si>
+  <si>
+    <t>10.0.1.10</t>
+  </si>
+  <si>
+    <t>10.0.1.11</t>
+  </si>
+  <si>
+    <t>192.168.180.2</t>
+  </si>
+  <si>
+    <t>192.168.180.3</t>
+  </si>
+  <si>
+    <t>192.168.180.4</t>
+  </si>
+  <si>
+    <t>10.1.1.10</t>
+  </si>
+  <si>
+    <t>10.1.1.11</t>
+  </si>
+  <si>
+    <t>10.1.1.12</t>
+  </si>
+  <si>
+    <t>10.1.2.10</t>
+  </si>
+  <si>
+    <t>10.1.2.11</t>
+  </si>
+  <si>
+    <t>10.1.2.12</t>
+  </si>
+  <si>
+    <t>ISO_Windows2012R2</t>
+  </si>
+  <si>
+    <t>ISO_Windows2012</t>
+  </si>
+  <si>
+    <t>ISO Image for Windows 2012 R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ISO Image for Windows 2012 </t>
+  </si>
+  <si>
+    <t>SW_DVD9_Windows_Svr_Std_and_DataCtr_2012_R2_64Bit_English_-3_MLF_X19-53588.ISO</t>
+  </si>
+  <si>
+    <t>template_Windows2012R2</t>
+  </si>
+  <si>
+    <t>template_Windows2012</t>
+  </si>
+  <si>
+    <t>Master Image for Windows2012 R2</t>
+  </si>
+  <si>
+    <t>Master Image for Windows2012</t>
+  </si>
+  <si>
+    <t>SW_DVD5_Win_Svr_Std_and_DataCtr_2012_64Bit_English_Core_MLF_X18-27588.ISO</t>
+  </si>
+  <si>
+    <t>HyperVVHDPath</t>
+  </si>
+  <si>
+    <t>c:\Hyper-V\Virtual Disks</t>
+  </si>
+  <si>
+    <t>HyperVPath</t>
+  </si>
+  <si>
+    <t>c:\Hyper-V\Virtual Machines</t>
+  </si>
+  <si>
+    <t>ScriptPath</t>
+  </si>
+  <si>
+    <t>c:\deploy\scripts</t>
+  </si>
+  <si>
+    <t>SoftwarePath</t>
+  </si>
+  <si>
+    <t>c:\deploy\software</t>
+  </si>
+  <si>
+    <t>Default Path for Hyper-V</t>
+  </si>
+  <si>
+    <t>Default Path for Hyper-V Virtual Disks</t>
+  </si>
+  <si>
+    <t>Default ath for Hyper-V Virtual Machines</t>
+  </si>
+  <si>
+    <t>Script Path</t>
+  </si>
+  <si>
+    <t>Software Path</t>
+  </si>
+  <si>
+    <t>DriverPath</t>
+  </si>
+  <si>
+    <t>c:\deploy\drivers</t>
+  </si>
+  <si>
+    <t>Driver Path</t>
+  </si>
+  <si>
+    <t>HeartbeatNetwork</t>
+  </si>
+  <si>
+    <t>HEARTBEAT</t>
+  </si>
+  <si>
+    <t>Network for Cluster Heartbeat</t>
+  </si>
+  <si>
+    <t>template_windows2012R2.vhdx</t>
+  </si>
+  <si>
+    <t>template_windows2012.vhdx</t>
+  </si>
+  <si>
+    <t>PackagePath</t>
+  </si>
+  <si>
+    <t>c:\deploy\software\packages</t>
+  </si>
+  <si>
+    <t>ISOPath</t>
+  </si>
+  <si>
+    <t>c:\deploy\software\ISO</t>
+  </si>
+  <si>
+    <t>Path for *.msu, *.msi and *.cab packages</t>
+  </si>
+  <si>
+    <t>Path for ISO Images</t>
+  </si>
+  <si>
+    <t>Windows Server 2012 R2</t>
+  </si>
+  <si>
+    <t>Windows Server 2012</t>
+  </si>
+  <si>
+    <t>Memory</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>10.6.1.1</t>
+  </si>
+  <si>
+    <t>48.5.5.9</t>
+  </si>
+  <si>
+    <t>48.5.5.7</t>
+  </si>
+  <si>
+    <t>SRVGWPDC001</t>
+  </si>
+  <si>
+    <t>SRVPGWHST001</t>
+  </si>
+  <si>
+    <t>SRVPCMPDC001</t>
+  </si>
+  <si>
+    <t>SRVVPFPDC001</t>
+  </si>
+  <si>
+    <t>SRVVPFPKI001</t>
+  </si>
+  <si>
+    <t>SRVVPFPDC002</t>
+  </si>
+  <si>
+    <t>SRVPINHST001</t>
+  </si>
+  <si>
+    <t>SRVPINHST002</t>
+  </si>
+  <si>
+    <t>SRVPINHST003</t>
+  </si>
+  <si>
+    <t>SRVPINHST004</t>
+  </si>
+  <si>
+    <t>SRVVINPDC001</t>
+  </si>
+  <si>
+    <t>SRVVINPDC002</t>
+  </si>
+  <si>
+    <t>cm.domain.local</t>
+  </si>
+  <si>
+    <t>gw.domain.local</t>
+  </si>
+  <si>
+    <t>hyper-v Host</t>
+  </si>
+  <si>
+    <t>domain controller</t>
   </si>
   <si>
     <t>Heartbeat</t>
   </si>
   <si>
-    <t>VM</t>
-  </si>
-  <si>
-    <t>Transfer</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Voice</t>
-  </si>
-  <si>
-    <t>Cluster</t>
-  </si>
-  <si>
     <t>192.168.150.0</t>
   </si>
   <si>
-    <t>heartbeat</t>
-  </si>
-  <si>
-    <t>cm.domain.local</t>
-  </si>
-  <si>
-    <t>Y02VCMPDC001</t>
-  </si>
-  <si>
-    <t>Y02VCMPDC002</t>
-  </si>
-  <si>
-    <t>Y02VCMDPM001</t>
-  </si>
-  <si>
-    <t>member,dpm</t>
-  </si>
-  <si>
-    <t>Y02VCMSCM001</t>
-  </si>
-  <si>
-    <t>SystemCenter Data Protection Manager</t>
-  </si>
-  <si>
-    <t>SystemCenter Configuration Manager</t>
-  </si>
-  <si>
-    <t>member,sccm</t>
-  </si>
-  <si>
-    <t>Y02VCMVMM001</t>
-  </si>
-  <si>
-    <t>SystemCenter Virtual Machine Manager</t>
-  </si>
-  <si>
-    <t>Y02VGWPDC001</t>
-  </si>
-  <si>
-    <t>gw.domain.local</t>
-  </si>
-  <si>
-    <t>Y02VGWPDC002</t>
-  </si>
-  <si>
-    <t>Volume License Service</t>
-  </si>
-  <si>
-    <t>Y02VCMVLS001</t>
-  </si>
-  <si>
-    <t>member,vls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">admin </t>
-  </si>
-  <si>
-    <t>Y02VCMWUS001</t>
-  </si>
-  <si>
-    <t>Windows Update Service</t>
-  </si>
-  <si>
-    <t>member,wsus</t>
-  </si>
-  <si>
-    <t>Y02VCMSEP001</t>
-  </si>
-  <si>
-    <t>Symantec Enterprise Protection</t>
-  </si>
-  <si>
-    <t>member,sep</t>
-  </si>
-  <si>
-    <t>DeployWorkDir</t>
-  </si>
-  <si>
-    <t>d:\deploy</t>
-  </si>
-  <si>
-    <t>Workdir on your local Machine for initial Deployment with  a minimum of 30GB free</t>
-  </si>
-  <si>
-    <t>gw_vm</t>
-  </si>
-  <si>
-    <t>gw_voice</t>
-  </si>
-  <si>
-    <t>10.2.1.0</t>
-  </si>
-  <si>
-    <t>10.2.2.0</t>
-  </si>
-  <si>
-    <t>NodeName</t>
-  </si>
-  <si>
-    <t>10.0.1.1</t>
-  </si>
-  <si>
-    <t>10.0.1.2</t>
-  </si>
-  <si>
-    <t>10.0.1.3</t>
-  </si>
-  <si>
-    <t>10.0.1.4</t>
-  </si>
-  <si>
-    <t>10.0.1.10</t>
-  </si>
-  <si>
-    <t>10.0.1.11</t>
-  </si>
-  <si>
-    <t>10.0.1.12</t>
-  </si>
-  <si>
-    <t>192.168.180.1</t>
-  </si>
-  <si>
-    <t>192.168.180.2</t>
-  </si>
-  <si>
-    <t>192.168.180.3</t>
-  </si>
-  <si>
-    <t>192.168.180.4</t>
-  </si>
-  <si>
-    <t>192.168.170.1</t>
-  </si>
-  <si>
-    <t>192.168.170.2</t>
-  </si>
-  <si>
-    <t>192.168.170.3</t>
-  </si>
-  <si>
-    <t>192.168.170.4</t>
-  </si>
-  <si>
-    <t>192.168.150.1</t>
-  </si>
-  <si>
-    <t>192.168.150.2</t>
-  </si>
-  <si>
-    <t>192.168.150.3</t>
-  </si>
-  <si>
-    <t>192.168.150.4</t>
-  </si>
-  <si>
-    <t>10.1.1.1</t>
-  </si>
-  <si>
-    <t>10.1.1.2</t>
-  </si>
-  <si>
-    <t>10.1.1.3</t>
-  </si>
-  <si>
-    <t>10.1.2.1</t>
-  </si>
-  <si>
-    <t>10.1.2.2</t>
-  </si>
-  <si>
-    <t>10.1.2.3</t>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -527,7 +512,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -558,12 +543,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="25">
     <border>
@@ -1098,21 +1077,24 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1465,27 +1447,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" style="49" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="37.140625" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="49" customWidth="1"/>
-    <col min="6" max="8" width="18.5703125" style="49" customWidth="1"/>
-    <col min="9" max="9" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="12" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.5703125" style="49" customWidth="1"/>
+    <col min="5" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.5703125" style="49" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -1494,525 +1475,526 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="K1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K1" t="s">
-        <v>37</v>
-      </c>
       <c r="L1" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>15</v>
+        <v>138</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
       <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>131</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>138</v>
-      </c>
-      <c r="K2" s="59" t="s">
-        <v>142</v>
+        <v>125</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>72</v>
       </c>
       <c r="L2" s="59" t="s">
-        <v>146</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>51</v>
+        <v>139</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D3" s="43"/>
-      <c r="E3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
       <c r="G3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>139</v>
-      </c>
-      <c r="K3" s="59" t="s">
-        <v>143</v>
+        <v>125</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>74</v>
       </c>
       <c r="L3" s="59" t="s">
-        <v>147</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>49</v>
-      </c>
       <c r="D4" s="44"/>
-      <c r="E4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>87</v>
-      </c>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
       <c r="G4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>144</v>
+        <v>125</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>75</v>
       </c>
       <c r="L4" s="59" t="s">
-        <v>148</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5" s="43"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>134</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="K5" s="59" t="s">
-        <v>145</v>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="58" t="s">
+        <v>76</v>
       </c>
       <c r="L5" s="59" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="B6" s="44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C6" s="44" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D6" s="44"/>
-      <c r="E6" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>64</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>135</v>
-      </c>
-      <c r="J6" s="59"/>
+      <c r="E6" s="16">
+        <v>4096</v>
+      </c>
+      <c r="F6" s="16">
+        <v>1</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H6" s="44" t="s">
+        <v>60</v>
+      </c>
+      <c r="I6" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="L6" s="59"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>62</v>
+        <v>143</v>
       </c>
       <c r="B7" s="43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="43" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D7" s="43"/>
-      <c r="E7" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="J7" s="59"/>
+      <c r="E7" s="13">
+        <v>4096</v>
+      </c>
+      <c r="F7" s="13">
+        <v>1</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="H7" s="43" t="s">
+        <v>58</v>
+      </c>
+      <c r="I7" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J7" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K7" s="58" t="s">
+        <v>78</v>
+      </c>
+      <c r="L7" s="59"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>76</v>
-      </c>
+      <c r="A8" s="15"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
       <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="J8" s="59"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="52"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="51"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="51"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="52"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="51"/>
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="51"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="52"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="52"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="51"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="51"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="44"/>
-      <c r="H14" s="52"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="52"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="43"/>
-      <c r="H15" s="51"/>
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="51"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="43"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="43"/>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="44"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="45"/>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="45"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="55"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="56"/>
-    </row>
-    <row r="30" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="56"/>
+    </row>
+    <row r="30" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="63"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30">
+      <c r="I31" s="31"/>
+      <c r="J31" s="30">
         <v>20161214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
-      <formula1>$A$35:$A$37</formula1>
-    </dataValidation>
-  </dataValidations>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.31496062992125984" top="0.74803149606299213" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
@@ -2023,7 +2005,7 @@
           <x14:formula1>
             <xm:f>Networks!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:Z1</xm:sqref>
+          <xm:sqref>K1:AB1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2033,10 +2015,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2044,13 +2026,14 @@
     <col min="1" max="1" width="17.140625" style="49" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" style="49" customWidth="1"/>
     <col min="3" max="4" width="28.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="49" customWidth="1"/>
-    <col min="6" max="8" width="18.5703125" style="49" customWidth="1"/>
+    <col min="5" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" style="49" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.5703125" style="49" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -2059,421 +2042,474 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="58" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+      <c r="L1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="E2" s="9">
+        <v>4096</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>43</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="59" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D3" s="43"/>
+      <c r="E3" s="9">
+        <v>4096</v>
+      </c>
+      <c r="F3" s="9">
+        <v>1</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="K3" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="I2" s="60" t="s">
-        <v>150</v>
-      </c>
-      <c r="J2" s="59" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="61" t="s">
-        <v>151</v>
-      </c>
-      <c r="J3" s="62" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>60</v>
-      </c>
       <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E4" s="9">
+        <v>4096</v>
+      </c>
+      <c r="F4" s="9">
+        <v>1</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="44" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="59" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
       <c r="G5" s="43"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="51"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="44"/>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
+      <c r="J6" s="52"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="43"/>
       <c r="C7" s="43"/>
       <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
       <c r="G7" s="43"/>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="51"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="44"/>
       <c r="C8" s="44"/>
       <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
       <c r="G8" s="44"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="43"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
       <c r="G9" s="43"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="51"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="44"/>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
       <c r="G10" s="44"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="43"/>
       <c r="C11" s="43"/>
       <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
       <c r="G11" s="43"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="43"/>
+      <c r="I11" s="43"/>
+      <c r="J11" s="51"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="44"/>
       <c r="C12" s="44"/>
       <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
       <c r="G12" s="44"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="52"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="43"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
       <c r="G13" s="43"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="51"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="44"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
       <c r="G14" s="44"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="52"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="43"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="43"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="43"/>
+      <c r="I15" s="43"/>
+      <c r="J15" s="51"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="44"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
       <c r="G16" s="44"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="52"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="43"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
       <c r="G17" s="43"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="43"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="51"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="44"/>
       <c r="C18" s="44"/>
       <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
       <c r="G18" s="44"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="52"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="43"/>
       <c r="C19" s="43"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="G19" s="43"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="43"/>
+      <c r="I19" s="43"/>
+      <c r="J19" s="51"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="44"/>
       <c r="C20" s="44"/>
       <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
       <c r="G20" s="44"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="44"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="52"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="43"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
       <c r="G21" s="43"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="51"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="44"/>
       <c r="C22" s="44"/>
       <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
       <c r="G22" s="44"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="44"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="52"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="43"/>
       <c r="C23" s="43"/>
       <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
       <c r="G23" s="43"/>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="43"/>
+      <c r="I23" s="43"/>
+      <c r="J23" s="51"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="44"/>
       <c r="C24" s="44"/>
       <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
       <c r="G24" s="44"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="44"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="52"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="45"/>
       <c r="C25" s="45"/>
       <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
       <c r="G25" s="45"/>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="53"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="46"/>
       <c r="C26" s="46"/>
       <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="46"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="54"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="45"/>
       <c r="C27" s="45"/>
       <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
       <c r="G27" s="45"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="45"/>
+      <c r="I27" s="45"/>
+      <c r="J27" s="53"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="47"/>
       <c r="C28" s="47"/>
       <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
       <c r="G28" s="47"/>
-      <c r="H28" s="55"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="55"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="48"/>
       <c r="C29" s="48"/>
       <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
       <c r="G29" s="48"/>
-      <c r="H29" s="56"/>
-    </row>
-    <row r="30" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="48"/>
+      <c r="I29" s="48"/>
+      <c r="J29" s="56"/>
+    </row>
+    <row r="30" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
       <c r="G30" s="7"/>
       <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="7"/>
+      <c r="J30" s="7"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="63"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30">
+      <c r="I31" s="31"/>
+      <c r="J31" s="30">
         <v>20161214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
-      <formula1>$A$35:$A$39</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2482,7 +2518,7 @@
           <x14:formula1>
             <xm:f>Networks!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:Z1</xm:sqref>
+          <xm:sqref>K1:AB1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2492,25 +2528,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:Z1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="49" customWidth="1"/>
-    <col min="3" max="3" width="36.7109375" style="49" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="49" customWidth="1"/>
-    <col min="6" max="8" width="18.5703125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -2519,468 +2554,420 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>100</v>
+        <v>134</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>99</v>
+        <v>144</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>147</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>64</v>
+      <c r="E2" s="9">
+        <v>4096</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F4" s="44" t="s">
-        <v>103</v>
-      </c>
-      <c r="G4" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F5" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="G5" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6" s="44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>77</v>
-      </c>
-      <c r="G6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C7" s="43" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F7" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="G7" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="44" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" s="44" t="s">
-        <v>119</v>
-      </c>
-      <c r="G8" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="H8" s="52" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>121</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="G9" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H9" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="15"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="15"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="55"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="56"/>
-    </row>
-    <row r="30" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30">
+      <c r="I31" s="31"/>
+      <c r="J31" s="30">
         <v>20161214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
-      <formula1>$A$35:$A$38</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -2989,7 +2976,7 @@
           <x14:formula1>
             <xm:f>Networks!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:Z1</xm:sqref>
+          <xm:sqref>K1:AB1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2999,24 +2986,24 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:Z1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.140625" style="49" customWidth="1"/>
-    <col min="2" max="2" width="18.5703125" style="49" customWidth="1"/>
-    <col min="3" max="4" width="28.5703125" style="49" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="49" customWidth="1"/>
-    <col min="6" max="8" width="18.5703125" style="49" customWidth="1"/>
+    <col min="1" max="1" width="17.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -3025,384 +3012,420 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>110</v>
+        <v>133</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>60</v>
+        <v>146</v>
       </c>
       <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>64</v>
+      <c r="E2" s="9">
+        <v>4096</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C3" s="43" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="43"/>
-      <c r="E3" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="F3" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="G3" s="43" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="51" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="52"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
-      <c r="B5" s="43"/>
-      <c r="C5" s="43"/>
-      <c r="D5" s="43"/>
-      <c r="E5" s="43"/>
-      <c r="F5" s="43"/>
-      <c r="G5" s="43"/>
-      <c r="H5" s="51"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="52"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="43"/>
-      <c r="G7" s="43"/>
-      <c r="H7" s="51"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="44"/>
-      <c r="G8" s="44"/>
-      <c r="H8" s="52"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="43"/>
-      <c r="G9" s="43"/>
-      <c r="H9" s="51"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="52"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="43"/>
-      <c r="G11" s="43"/>
-      <c r="H11" s="51"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="44"/>
-      <c r="G12" s="44"/>
-      <c r="H12" s="52"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="16"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
-      <c r="B13" s="43"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="51"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B13" s="13"/>
+      <c r="C13" s="13"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="44"/>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44"/>
-      <c r="H14" s="52"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="16"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
-      <c r="B15" s="43"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="43"/>
-      <c r="G15" s="43"/>
-      <c r="H15" s="51"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="13"/>
+      <c r="C15" s="13"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
-      <c r="B16" s="44"/>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44"/>
-      <c r="H16" s="52"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="16"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
-      <c r="B17" s="43"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="43"/>
-      <c r="F17" s="43"/>
-      <c r="G17" s="43"/>
-      <c r="H17" s="51"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44"/>
-      <c r="H18" s="52"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
-      <c r="B19" s="43"/>
-      <c r="C19" s="43"/>
-      <c r="D19" s="43"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="43"/>
-      <c r="G19" s="43"/>
-      <c r="H19" s="51"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="52"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="16"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="B21" s="43"/>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="51"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="13"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="44"/>
-      <c r="H22" s="52"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="16"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="B23" s="43"/>
-      <c r="C23" s="43"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="43"/>
-      <c r="H23" s="51"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="52"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="16"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="45"/>
-      <c r="E25" s="45"/>
-      <c r="F25" s="45"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="53"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="19"/>
+      <c r="C25" s="19"/>
+      <c r="D25" s="19"/>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" s="19"/>
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
-      <c r="B26" s="46"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="46"/>
-      <c r="F26" s="46"/>
-      <c r="G26" s="46"/>
-      <c r="H26" s="54"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
-      <c r="B27" s="45"/>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="45"/>
-      <c r="F27" s="45"/>
-      <c r="G27" s="45"/>
-      <c r="H27" s="53"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="19"/>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="55"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="25"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="48"/>
-      <c r="G29" s="48"/>
-      <c r="H29" s="56"/>
-    </row>
-    <row r="30" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="63"/>
-      <c r="B31" s="64"/>
+      <c r="B30" s="1"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+      <c r="G30" s="1"/>
+      <c r="H30" s="1"/>
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="65"/>
+      <c r="B31" s="66"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30">
+      <c r="I31" s="31"/>
+      <c r="J31" s="30">
         <v>20161214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
-      <formula1>$A$35:$A$39</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3411,7 +3434,7 @@
           <x14:formula1>
             <xm:f>Networks!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:Z1</xm:sqref>
+          <xm:sqref>K1:AB1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3421,31 +3444,24 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.140625" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
-    <col min="3" max="4" width="28.5703125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="8" width="18.5703125" customWidth="1"/>
-    <col min="10" max="10" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="28.5703125" customWidth="1"/>
+    <col min="7" max="7" width="20" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>130</v>
+        <v>71</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>4</v>
@@ -3454,47 +3470,64 @@
         <v>5</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="58"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="C2" s="9" t="s">
+        <v>147</v>
+      </c>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9">
+        <v>4096</v>
+      </c>
+      <c r="F2" s="9">
+        <v>1</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="I2" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9" t="s">
+      <c r="J2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K2" s="58" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="12"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -3502,9 +3535,11 @@
       <c r="E3" s="13"/>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="14"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="15"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -3512,9 +3547,11 @@
       <c r="E4" s="16"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
-      <c r="H4" s="17"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -3522,9 +3559,11 @@
       <c r="E5" s="13"/>
       <c r="F5" s="13"/>
       <c r="G5" s="13"/>
-      <c r="H5" s="14"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="14"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="15"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -3532,9 +3571,11 @@
       <c r="E6" s="16"/>
       <c r="F6" s="16"/>
       <c r="G6" s="16"/>
-      <c r="H6" s="17"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="17"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="12"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -3542,9 +3583,11 @@
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="14"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="16"/>
@@ -3552,9 +3595,11 @@
       <c r="E8" s="16"/>
       <c r="F8" s="16"/>
       <c r="G8" s="16"/>
-      <c r="H8" s="17"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="17"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -3562,9 +3607,11 @@
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
       <c r="G9" s="13"/>
-      <c r="H9" s="14"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="14"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="16"/>
@@ -3572,9 +3619,11 @@
       <c r="E10" s="16"/>
       <c r="F10" s="16"/>
       <c r="G10" s="16"/>
-      <c r="H10" s="17"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="17"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -3582,9 +3631,11 @@
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
       <c r="G11" s="13"/>
-      <c r="H11" s="14"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="14"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="16"/>
       <c r="C12" s="16"/>
@@ -3592,9 +3643,11 @@
       <c r="E12" s="16"/>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
-      <c r="H12" s="17"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="17"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -3602,9 +3655,11 @@
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
       <c r="G13" s="13"/>
-      <c r="H13" s="14"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="14"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="16"/>
@@ -3612,9 +3667,11 @@
       <c r="E14" s="16"/>
       <c r="F14" s="16"/>
       <c r="G14" s="16"/>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H14" s="16"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="17"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -3622,9 +3679,11 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="14"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="14"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="16"/>
@@ -3632,9 +3691,11 @@
       <c r="E16" s="16"/>
       <c r="F16" s="16"/>
       <c r="G16" s="16"/>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -3642,9 +3703,11 @@
       <c r="E17" s="13"/>
       <c r="F17" s="13"/>
       <c r="G17" s="13"/>
-      <c r="H17" s="14"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
@@ -3652,9 +3715,11 @@
       <c r="E18" s="16"/>
       <c r="F18" s="16"/>
       <c r="G18" s="16"/>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -3662,9 +3727,11 @@
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="14"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H19" s="13"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="14"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="16"/>
@@ -3672,9 +3739,11 @@
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
-      <c r="H20" s="17"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -3682,9 +3751,11 @@
       <c r="E21" s="13"/>
       <c r="F21" s="13"/>
       <c r="G21" s="13"/>
-      <c r="H21" s="14"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H21" s="13"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="16"/>
       <c r="C22" s="16"/>
@@ -3692,9 +3763,11 @@
       <c r="E22" s="16"/>
       <c r="F22" s="16"/>
       <c r="G22" s="16"/>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -3702,9 +3775,11 @@
       <c r="E23" s="13"/>
       <c r="F23" s="13"/>
       <c r="G23" s="13"/>
-      <c r="H23" s="14"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="14"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="16"/>
       <c r="C24" s="16"/>
@@ -3712,9 +3787,11 @@
       <c r="E24" s="16"/>
       <c r="F24" s="16"/>
       <c r="G24" s="16"/>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="17"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="19"/>
       <c r="C25" s="19"/>
@@ -3722,9 +3799,11 @@
       <c r="E25" s="19"/>
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
-      <c r="H25" s="20"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H25" s="19"/>
+      <c r="I25" s="19"/>
+      <c r="J25" s="20"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="22"/>
       <c r="C26" s="22"/>
@@ -3732,9 +3811,11 @@
       <c r="E26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="23"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="19"/>
       <c r="C27" s="19"/>
@@ -3742,9 +3823,11 @@
       <c r="E27" s="19"/>
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
-      <c r="H27" s="20"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="25"/>
       <c r="C28" s="25"/>
@@ -3752,9 +3835,11 @@
       <c r="E28" s="25"/>
       <c r="F28" s="25"/>
       <c r="G28" s="25"/>
-      <c r="H28" s="26"/>
-    </row>
-    <row r="29" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
+    </row>
+    <row r="29" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="28"/>
       <c r="C29" s="28"/>
@@ -3762,9 +3847,11 @@
       <c r="E29" s="28"/>
       <c r="F29" s="28"/>
       <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
@@ -3773,51 +3860,30 @@
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="65"/>
       <c r="B31" s="66"/>
       <c r="C31" s="64"/>
       <c r="D31" s="64"/>
       <c r="E31" s="64"/>
-      <c r="F31" s="6" t="s">
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="G31" s="31"/>
-      <c r="H31" s="30">
+      <c r="I31" s="31"/>
+      <c r="J31" s="30">
         <v>20161214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="59" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="59" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" s="59" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="C31:G31"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E29">
-      <formula1>$A$35:$A$38</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -3826,7 +3892,7 @@
           <x14:formula1>
             <xm:f>Networks!$A$2:$A$29</xm:f>
           </x14:formula1>
-          <xm:sqref>I1:Z1</xm:sqref>
+          <xm:sqref>K1:AB1</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3836,9 +3902,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M41"/>
+  <dimension ref="A1:N31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3846,17 +3914,17 @@
     <col min="3" max="3" width="18.5703125" style="49" customWidth="1"/>
     <col min="4" max="4" width="28.5703125" style="49" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="49" customWidth="1"/>
-    <col min="6" max="12" width="18.5703125" style="49" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="11" width="18.5703125" style="49" customWidth="1"/>
+    <col min="13" max="13" width="13" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>8</v>
@@ -3874,28 +3942,30 @@
         <v>12</v>
       </c>
       <c r="H1" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="33" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="58"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>36</v>
       </c>
       <c r="B2" s="36" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C2" s="9">
         <v>24</v>
@@ -3904,36 +3974,37 @@
         <v>40</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F2" s="9" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="H2" s="9">
-        <v>1514</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="J2" s="9">
+        <v>48</v>
+      </c>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9">
         <v>5</v>
       </c>
-      <c r="K2" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="M2" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B3" s="37" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="C3" s="43">
         <v>24</v>
@@ -3944,30 +4015,31 @@
       <c r="E3" s="43"/>
       <c r="F3" s="43"/>
       <c r="G3" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" s="43">
-        <v>1514</v>
-      </c>
-      <c r="I3" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="J3" s="43">
+        <v>48</v>
+      </c>
+      <c r="H3" s="43"/>
+      <c r="I3" s="43">
         <v>10</v>
       </c>
-      <c r="K3" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="L3" s="51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J3" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K3" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="M3" t="s">
+        <v>24</v>
+      </c>
+      <c r="N3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B4" s="38" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="C4" s="44">
         <v>24</v>
@@ -3978,30 +4050,27 @@
       <c r="E4" s="44"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" s="44">
-        <v>9014</v>
-      </c>
-      <c r="I4" s="44" t="s">
-        <v>94</v>
-      </c>
-      <c r="J4" s="44">
+        <v>50</v>
+      </c>
+      <c r="H4" s="44" t="s">
+        <v>150</v>
+      </c>
+      <c r="I4" s="44">
         <v>10</v>
       </c>
-      <c r="K4" s="44" t="s">
-        <v>79</v>
-      </c>
-      <c r="L4" s="52" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J4" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="52" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="B5" s="37" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C5" s="43">
         <v>24</v>
@@ -4010,34 +4079,29 @@
         <v>630</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="43"/>
       <c r="G5" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H5" s="43">
-        <v>1514</v>
-      </c>
-      <c r="I5" s="43" t="s">
-        <v>92</v>
-      </c>
-      <c r="J5" s="43">
+        <v>48</v>
+      </c>
+      <c r="H5" s="43"/>
+      <c r="I5" s="43">
         <v>5</v>
       </c>
-      <c r="K5" s="43" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C6" s="44">
         <v>24</v>
@@ -4048,30 +4112,25 @@
       <c r="E6" s="44"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44" t="s">
-        <v>47</v>
-      </c>
-      <c r="H6" s="44">
-        <v>1514</v>
-      </c>
-      <c r="I6" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="J6" s="44">
+        <v>50</v>
+      </c>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44">
         <v>5</v>
       </c>
-      <c r="K6" s="44" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J6" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
-        <v>96</v>
+        <v>148</v>
       </c>
       <c r="B7" s="37" t="s">
-        <v>97</v>
+        <v>149</v>
       </c>
       <c r="C7" s="43">
         <v>24</v>
@@ -4081,96 +4140,45 @@
       </c>
       <c r="E7" s="43"/>
       <c r="F7" s="43"/>
-      <c r="G7" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="H7" s="43">
-        <v>1514</v>
-      </c>
-      <c r="I7" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="J7" s="43">
-        <v>5</v>
-      </c>
-      <c r="K7" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="L7" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>128</v>
-      </c>
-      <c r="C8" s="44">
-        <v>24</v>
-      </c>
-      <c r="D8" s="44">
-        <v>710</v>
-      </c>
-      <c r="E8" s="44" t="s">
-        <v>111</v>
-      </c>
+      <c r="G7" s="44" t="s">
+        <v>50</v>
+      </c>
+      <c r="H7" s="44"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="43" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="51" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="15"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
       <c r="F8" s="44"/>
-      <c r="G8" s="44" t="s">
-        <v>45</v>
-      </c>
-      <c r="H8" s="44">
-        <v>1514</v>
-      </c>
-      <c r="I8" s="44" t="s">
-        <v>92</v>
-      </c>
-      <c r="J8" s="44">
-        <v>5</v>
-      </c>
-      <c r="K8" s="44" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B9" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="43">
-        <v>24</v>
-      </c>
-      <c r="D9" s="43">
-        <v>715</v>
-      </c>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="52"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="12"/>
+      <c r="B9" s="37"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="43"/>
       <c r="F9" s="43"/>
-      <c r="G9" s="43" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="43">
-        <v>1514</v>
-      </c>
-      <c r="I9" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="J9" s="43">
-        <v>5</v>
-      </c>
-      <c r="K9" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G9" s="43"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="43"/>
+      <c r="K9" s="51"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="38"/>
       <c r="C10" s="44"/>
@@ -4181,10 +4189,9 @@
       <c r="H10" s="44"/>
       <c r="I10" s="44"/>
       <c r="J10" s="44"/>
-      <c r="K10" s="44"/>
-      <c r="L10" s="52"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K10" s="52"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="12"/>
       <c r="B11" s="37"/>
       <c r="C11" s="43"/>
@@ -4195,10 +4202,9 @@
       <c r="H11" s="43"/>
       <c r="I11" s="43"/>
       <c r="J11" s="43"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="51"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K11" s="51"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="38"/>
       <c r="C12" s="44"/>
@@ -4209,10 +4215,9 @@
       <c r="H12" s="44"/>
       <c r="I12" s="44"/>
       <c r="J12" s="44"/>
-      <c r="K12" s="44"/>
-      <c r="L12" s="52"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K12" s="52"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="12"/>
       <c r="B13" s="37"/>
       <c r="C13" s="43"/>
@@ -4223,10 +4228,9 @@
       <c r="H13" s="43"/>
       <c r="I13" s="43"/>
       <c r="J13" s="43"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="51"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K13" s="51"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="38"/>
       <c r="C14" s="44"/>
@@ -4237,10 +4241,9 @@
       <c r="H14" s="44"/>
       <c r="I14" s="44"/>
       <c r="J14" s="44"/>
-      <c r="K14" s="44"/>
-      <c r="L14" s="52"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K14" s="52"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="37"/>
       <c r="C15" s="43"/>
@@ -4251,10 +4254,9 @@
       <c r="H15" s="43"/>
       <c r="I15" s="43"/>
       <c r="J15" s="43"/>
-      <c r="K15" s="43"/>
-      <c r="L15" s="51"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="K15" s="51"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="38"/>
       <c r="C16" s="44"/>
@@ -4265,10 +4267,9 @@
       <c r="H16" s="44"/>
       <c r="I16" s="44"/>
       <c r="J16" s="44"/>
-      <c r="K16" s="44"/>
-      <c r="L16" s="52"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K16" s="52"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="37"/>
       <c r="C17" s="43"/>
@@ -4279,10 +4280,9 @@
       <c r="H17" s="43"/>
       <c r="I17" s="43"/>
       <c r="J17" s="43"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="51"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="51"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="38"/>
       <c r="C18" s="44"/>
@@ -4293,10 +4293,9 @@
       <c r="H18" s="44"/>
       <c r="I18" s="44"/>
       <c r="J18" s="44"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="52"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="52"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12"/>
       <c r="B19" s="37"/>
       <c r="C19" s="43"/>
@@ -4307,10 +4306,9 @@
       <c r="H19" s="43"/>
       <c r="I19" s="43"/>
       <c r="J19" s="43"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="51"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="51"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="15"/>
       <c r="B20" s="38"/>
       <c r="C20" s="44"/>
@@ -4321,10 +4319,9 @@
       <c r="H20" s="44"/>
       <c r="I20" s="44"/>
       <c r="J20" s="44"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="52"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="52"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="37"/>
       <c r="C21" s="43"/>
@@ -4335,10 +4332,9 @@
       <c r="H21" s="43"/>
       <c r="I21" s="43"/>
       <c r="J21" s="43"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="51"/>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="51"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="15"/>
       <c r="B22" s="38"/>
       <c r="C22" s="44"/>
@@ -4349,10 +4345,9 @@
       <c r="H22" s="44"/>
       <c r="I22" s="44"/>
       <c r="J22" s="44"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="52"/>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K22" s="52"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
       <c r="B23" s="37"/>
       <c r="C23" s="43"/>
@@ -4363,10 +4358,9 @@
       <c r="H23" s="43"/>
       <c r="I23" s="43"/>
       <c r="J23" s="43"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="51"/>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K23" s="51"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="15"/>
       <c r="B24" s="38"/>
       <c r="C24" s="44"/>
@@ -4377,10 +4371,9 @@
       <c r="H24" s="44"/>
       <c r="I24" s="44"/>
       <c r="J24" s="44"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="52"/>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K24" s="52"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="18"/>
       <c r="B25" s="39"/>
       <c r="C25" s="45"/>
@@ -4391,10 +4384,9 @@
       <c r="H25" s="45"/>
       <c r="I25" s="45"/>
       <c r="J25" s="45"/>
-      <c r="K25" s="45"/>
-      <c r="L25" s="53"/>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K25" s="53"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="40"/>
       <c r="C26" s="46"/>
@@ -4405,10 +4397,9 @@
       <c r="H26" s="46"/>
       <c r="I26" s="46"/>
       <c r="J26" s="46"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="54"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K26" s="54"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="18"/>
       <c r="B27" s="39"/>
       <c r="C27" s="45"/>
@@ -4419,10 +4410,9 @@
       <c r="H27" s="45"/>
       <c r="I27" s="45"/>
       <c r="J27" s="45"/>
-      <c r="K27" s="45"/>
-      <c r="L27" s="53"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K27" s="53"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="24"/>
       <c r="B28" s="41"/>
       <c r="C28" s="47"/>
@@ -4433,10 +4423,9 @@
       <c r="H28" s="47"/>
       <c r="I28" s="47"/>
       <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="55"/>
-    </row>
-    <row r="29" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="55"/>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="27"/>
       <c r="B29" s="42"/>
       <c r="C29" s="48"/>
@@ -4447,10 +4436,9 @@
       <c r="H29" s="48"/>
       <c r="I29" s="48"/>
       <c r="J29" s="48"/>
-      <c r="K29" s="48"/>
-      <c r="L29" s="56"/>
-    </row>
-    <row r="30" spans="1:12" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="56"/>
+    </row>
+    <row r="30" spans="1:11" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="7"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -4462,9 +4450,8 @@
       <c r="I30" s="7"/>
       <c r="J30" s="7"/>
       <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:11" ht="24.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="63"/>
       <c r="B31" s="64"/>
       <c r="C31" s="64"/>
@@ -4476,77 +4463,9 @@
       <c r="G31" s="57"/>
       <c r="H31" s="57"/>
       <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-      <c r="K31" s="31"/>
-      <c r="L31" s="30">
+      <c r="J31" s="31"/>
+      <c r="K31" s="30">
         <v>20161214</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B34" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C34" s="34" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="49" t="s">
-        <v>79</v>
-      </c>
-      <c r="B35" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C35" s="49" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="49" t="s">
-        <v>80</v>
-      </c>
-      <c r="B36" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="49" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="49" t="s">
-        <v>81</v>
-      </c>
-      <c r="C37" s="49" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="49" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="49" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="49" t="s">
-        <v>83</v>
-      </c>
-      <c r="C39" s="49" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C40" s="49" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C41" s="49" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -4554,15 +4473,12 @@
     <mergeCell ref="A31:C31"/>
     <mergeCell ref="D31:E31"/>
   </mergeCells>
-  <dataValidations count="3">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J29">
+      <formula1>$M$2:$M$3</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K29">
-      <formula1>$A$35:$A$39</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L29">
-      <formula1>$B$35:$B$36</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2:I29">
-      <formula1>$C$35:$C$42</formula1>
+      <formula1>$N$2:$N$3</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4571,17 +4487,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="76.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -4589,7 +4505,7 @@
         <v>3</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>5</v>
@@ -4597,128 +4513,212 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B2" s="9">
+        <v>28</v>
+      </c>
+      <c r="B2" s="62">
         <v>9014</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>31</v>
+      <c r="C2" s="62" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="13" t="s">
+      <c r="B8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="15" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="12" t="s">
+      <c r="B11" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="13" t="s">
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="12" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="15"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13"/>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="12"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="12"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="16"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="12"/>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="15"/>
-      <c r="B19" s="16"/>
-      <c r="C19" s="16"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="15"/>
@@ -4726,43 +4726,73 @@
       <c r="C21" s="16"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="18"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13"/>
+      <c r="C22" s="13"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="21"/>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
+      <c r="A23" s="15"/>
+      <c r="B23" s="16"/>
+      <c r="C23" s="16"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="18"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-    </row>
-    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="27"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-    </row>
-    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="65"/>
-      <c r="B28" s="66"/>
-      <c r="C28" s="32"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="12"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="16"/>
+      <c r="C27" s="16"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="25"/>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="27"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="65"/>
+      <c r="B34" s="66"/>
+      <c r="C34" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
